--- a/fullsite/Schedule.xlsx
+++ b/fullsite/Schedule.xlsx
@@ -134,7 +134,7 @@
     <t>Gaming</t>
   </si>
   <si>
-    <t>SACA LAB and NTB Floor 1 Classroom</t>
+    <t>CCC</t>
   </si>
   <si>
     <t>09:00-21:30</t>
@@ -572,7 +572,7 @@
     <t>Auto Quiz</t>
   </si>
   <si>
-    <t>LSD </t>
+    <t>LSD</t>
   </si>
   <si>
     <t>16:00-18:00</t>
@@ -1092,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F137" activeCellId="0" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1147,8 +1147,6 @@
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -1169,6 +1167,7 @@
       <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="0"/>
       <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,6 +1185,8 @@
       <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -1202,6 +1203,8 @@
       <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -1218,6 +1221,8 @@
       <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
@@ -1234,6 +1239,8 @@
       <c r="F7" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
@@ -1250,6 +1257,8 @@
       <c r="F8" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
@@ -1266,6 +1275,7 @@
       <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="G9" s="0"/>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,8 +1293,10 @@
       <c r="F10" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -1299,6 +1311,8 @@
       <c r="F11" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -1315,6 +1329,7 @@
       <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="G12" s="0"/>
       <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,6 +1347,8 @@
       <c r="F13" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
@@ -1348,6 +1365,8 @@
       <c r="F14" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -1364,6 +1383,8 @@
       <c r="F15" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
@@ -1380,6 +1401,8 @@
       <c r="F16" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
@@ -1396,6 +1419,8 @@
       <c r="F17" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
@@ -1412,6 +1437,8 @@
       <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -1428,6 +1455,8 @@
       <c r="F19" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
@@ -1444,6 +1473,8 @@
       <c r="F20" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
@@ -1460,6 +1491,8 @@
       <c r="F21" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -1476,6 +1509,8 @@
       <c r="F22" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
@@ -1492,6 +1527,8 @@
       <c r="F23" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -1509,6 +1546,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="16"/>
+      <c r="H24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -2489,7 +2527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="36" t="s">
@@ -2985,7 +3023,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="42"/>
       <c r="B117" s="43"/>
       <c r="C117" s="6" t="s">
